--- a/Input/urbs_intertemporal_2050/2025.xlsx
+++ b/Input/urbs_intertemporal_2050/2025.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gerald\Desktop\urbs-test\urbs\Input\urbs_intertemporal_2050\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gerald\Desktop\urbsextension\Input\urbs_intertemporal_2050\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53998D96-9887-421B-9F18-07D93F5981A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7F2FE6D-3CC4-4E60-8117-72ABE9047DD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="796" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="796" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
@@ -1912,16 +1912,7 @@
     <cellStyle name="Zelle überprüfen 4" xfId="214" xr:uid="{00000000-0005-0000-0000-0000D6000000}"/>
     <cellStyle name="Zelle überprüfen 5" xfId="215" xr:uid="{00000000-0005-0000-0000-0000D7000000}"/>
   </cellStyles>
-  <dxfs count="24">
-    <dxf>
-      <border>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="23">
     <dxf>
       <border>
         <top style="thin">
@@ -2494,10 +2485,10 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+      <selection sqref="A1:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -2548,11 +2539,165 @@
         <v>0.20699999999999999</v>
       </c>
     </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="5">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="C4">
+        <v>0.3</v>
+      </c>
+      <c r="D4" s="60">
+        <v>0.20699999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="C5">
+        <v>0.3</v>
+      </c>
+      <c r="D5" s="60">
+        <v>0.20699999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="5">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="C6">
+        <v>0.3</v>
+      </c>
+      <c r="D6" s="60">
+        <v>0.20699999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="5">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="C7">
+        <v>0.3</v>
+      </c>
+      <c r="D7" s="60">
+        <v>0.20699999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="5">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="C8">
+        <v>0.3</v>
+      </c>
+      <c r="D8" s="60">
+        <v>0.20699999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="5">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="C9">
+        <v>0.3</v>
+      </c>
+      <c r="D9" s="60">
+        <v>0.20699999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="5">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="C10">
+        <v>0.3</v>
+      </c>
+      <c r="D10" s="60">
+        <v>0.20699999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="5">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="C11">
+        <v>0.3</v>
+      </c>
+      <c r="D11" s="60">
+        <v>0.20699999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="5">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="C12">
+        <v>0.3</v>
+      </c>
+      <c r="D12" s="60">
+        <v>0.20699999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="5">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="C13">
+        <v>0.3</v>
+      </c>
+      <c r="D13" s="60">
+        <v>0.20699999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="5">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="C14">
+        <v>0.3</v>
+      </c>
+      <c r="D14" s="60">
+        <v>0.20699999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Capacity factor Wind" prompt="Normalized capacity factor (maximum value 1) of wind power. Determines EPrIn of processes with input commodity Wind." sqref="B1" xr:uid="{65A2BB94-A190-42E7-AB67-80F32E5A36F7}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Capacity factor Hydro" prompt="Normalized capacity factor (maximum value 1) of hydro power. Determines EPrIn of processes with input commodity Hydro." sqref="C1" xr:uid="{49ED9D7A-7D8C-4D8C-8247-BCFD8594117D}"/>
-    <dataValidation allowBlank="1" showErrorMessage="1" sqref="B2:C2" xr:uid="{7CF61190-B536-4B79-8921-B012E6164938}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Capacity factor Wind" prompt="Normalized capacity factor (maximum value 1) of wind power. Determines EPrIn of processes with input commodity Wind." sqref="B1" xr:uid="{379F9A3E-9259-47B0-A363-8051A3347182}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Capacity factor Hydro" prompt="Normalized capacity factor (maximum value 1) of hydro power. Determines EPrIn of processes with input commodity Hydro." sqref="C1" xr:uid="{32974DE1-7390-4676-BCA0-D4D53CED5139}"/>
+    <dataValidation allowBlank="1" showErrorMessage="1" sqref="B2:C2" xr:uid="{10044C9F-A91F-471F-B5B8-C512EB8C4986}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2922,7 +3067,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B10:B11">
-    <cfRule type="expression" dxfId="23" priority="1">
+    <cfRule type="expression" dxfId="22" priority="1">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2943,7 +3088,7 @@
   </sheetPr>
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -3502,57 +3647,52 @@
   </sheetData>
   <autoFilter ref="A1:L1" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <conditionalFormatting sqref="A2:A13">
-    <cfRule type="expression" dxfId="22" priority="8">
+    <cfRule type="expression" dxfId="21" priority="8">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:B6">
-    <cfRule type="expression" dxfId="21" priority="10">
+    <cfRule type="expression" dxfId="20" priority="10">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1 A14:XFD1048576">
-    <cfRule type="expression" dxfId="20" priority="20">
+    <cfRule type="expression" dxfId="19" priority="20">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B5">
-    <cfRule type="expression" dxfId="19" priority="9">
+    <cfRule type="expression" dxfId="18" priority="9">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B7:B10 B12:B13">
-    <cfRule type="expression" dxfId="18" priority="7">
+  <conditionalFormatting sqref="B7:B13">
+    <cfRule type="expression" dxfId="17" priority="1">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C13">
-    <cfRule type="expression" dxfId="17" priority="3">
+    <cfRule type="expression" dxfId="16" priority="3">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:D13">
-    <cfRule type="expression" dxfId="16" priority="2">
+    <cfRule type="expression" dxfId="15" priority="2">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:M3 C4:M5 E6:M6">
-    <cfRule type="expression" dxfId="15" priority="16">
+    <cfRule type="expression" dxfId="14" priority="16">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:I4">
-    <cfRule type="expression" dxfId="14" priority="13">
+    <cfRule type="expression" dxfId="13" priority="13">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P2:XFD6">
-    <cfRule type="expression" dxfId="13" priority="18">
-      <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B11">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="12" priority="18">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4168,27 +4308,27 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:XFD23 F24:XFD32 A33:XFD1048576">
-    <cfRule type="expression" dxfId="12" priority="23">
+    <cfRule type="expression" dxfId="11" priority="23">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:C2 E2">
-    <cfRule type="expression" dxfId="11" priority="42">
+    <cfRule type="expression" dxfId="10" priority="42">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25:C31">
-    <cfRule type="expression" dxfId="10" priority="15">
+    <cfRule type="expression" dxfId="9" priority="15">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32:D32">
-    <cfRule type="expression" dxfId="9" priority="2">
+    <cfRule type="expression" dxfId="8" priority="2">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:E24 A24:A32 D27:E27 D30:E30">
-    <cfRule type="expression" dxfId="8" priority="16">
+    <cfRule type="expression" dxfId="7" priority="16">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4228,7 +4368,7 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D19 D17">
+  <conditionalFormatting sqref="D17 D19">
     <cfRule type="dataBar" priority="24">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -4291,7 +4431,7 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="8">
+    <cfRule type="expression" dxfId="6" priority="8">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
     <cfRule type="dataBar" priority="9">
@@ -4334,7 +4474,7 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="5">
+    <cfRule type="expression" dxfId="5" priority="5">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
     <cfRule type="dataBar" priority="6">
@@ -4477,7 +4617,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25:E26">
-    <cfRule type="expression" dxfId="5" priority="14">
+    <cfRule type="expression" dxfId="4" priority="14">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4496,7 +4636,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28:E29">
-    <cfRule type="expression" dxfId="4" priority="12">
+    <cfRule type="expression" dxfId="3" priority="12">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4515,7 +4655,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31:E32">
-    <cfRule type="expression" dxfId="3" priority="10">
+    <cfRule type="expression" dxfId="2" priority="10">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4811,7 +4951,7 @@
   </sheetData>
   <autoFilter ref="A1:L1" xr:uid="{00000000-0009-0000-0000-000005000000}"/>
   <conditionalFormatting sqref="K1">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5116,7 +5256,7 @@
   </sheetData>
   <autoFilter ref="A1:R1" xr:uid="{00000000-0009-0000-0000-000006000000}"/>
   <conditionalFormatting sqref="P1">
-    <cfRule type="expression" dxfId="1" priority="3">
+    <cfRule type="expression" dxfId="0" priority="3">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5217,22 +5357,21 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="11.42578125" style="2"/>
     <col min="3" max="3" width="11.42578125" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="11.42578125" style="2"/>
+    <col min="6" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="13" t="s">
         <v>87</v>
       </c>
       <c r="B1" s="6" t="s">
@@ -5252,7 +5391,95 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2697562500</v>
+        <v>224796875</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="5">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>224796875</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>224796875</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="5">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>224796875</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="5">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>224796875</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="5">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>224796875</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="5">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>224796875</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="5">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>224796875</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="5">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>224796875</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="5">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>224796875</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="5">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>224796875</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="5">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>224796875</v>
       </c>
     </row>
   </sheetData>

--- a/Input/urbs_intertemporal_2050/2025.xlsx
+++ b/Input/urbs_intertemporal_2050/2025.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gerald\Desktop\urbsextension\Input\urbs_intertemporal_2050\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxoi\GitHub\urbs-extension\result\urbs-20250603T1601\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7F2FE6D-3CC4-4E60-8117-72ABE9047DD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDF70029-BC83-4A86-86E5-B5728A965A81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="796" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-5445" windowWidth="38640" windowHeight="21120" tabRatio="796" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="102">
   <si>
     <t>Property</t>
   </si>
@@ -347,6 +347,15 @@
   </si>
   <si>
     <t>Gas Plant (CCGT) CCUS</t>
+  </si>
+  <si>
+    <t>Piped Gas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LNG </t>
+  </si>
+  <si>
+    <t>Gas Plant (CCGT) LNG</t>
   </si>
 </sst>
 </file>
@@ -354,13 +363,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="7">
-    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="0.0000"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="#,##0.000"/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="#,##0.000"/>
+    <numFmt numFmtId="168" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="169" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -1064,11 +1073,11 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="21" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="21" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="21" borderId="0"/>
@@ -1202,11 +1211,11 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="4"/>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="4"/>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="4"/>
@@ -1235,11 +1244,11 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="4"/>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="4"/>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="4"/>
@@ -1268,11 +1277,11 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="4"/>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="4"/>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="4"/>
@@ -1311,20 +1320,20 @@
     <xf numFmtId="0" fontId="2" fillId="22" borderId="4"/>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="4"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="168" fontId="20" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0"/>
@@ -1365,7 +1374,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1395,8 +1404,8 @@
     <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" indent="2"/>
     </xf>
@@ -1406,7 +1415,7 @@
     <xf numFmtId="2" fontId="0" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" indent="2"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" indent="2"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1415,7 +1424,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" indent="2"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1428,7 +1437,7 @@
       <alignment horizontal="right" indent="2"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="23" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1456,7 +1465,7 @@
     <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1489,7 +1498,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="43" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="44" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="44" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="44" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="24" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="24" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1505,7 +1514,7 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="47" borderId="0" xfId="0" applyFill="1"/>
@@ -1912,7 +1921,61 @@
     <cellStyle name="Zelle überprüfen 4" xfId="214" xr:uid="{00000000-0005-0000-0000-0000D6000000}"/>
     <cellStyle name="Zelle überprüfen 5" xfId="215" xr:uid="{00000000-0005-0000-0000-0000D7000000}"/>
   </cellStyles>
-  <dxfs count="23">
+  <dxfs count="29">
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <top style="thin">
@@ -2429,13 +2492,13 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="14.140625" style="32" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" style="32" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="74.85546875" style="32" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="32" customWidth="1"/>
-    <col min="5" max="16384" width="11.42578125" style="32"/>
+    <col min="1" max="1" width="14.109375" style="32" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="74.88671875" style="32" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" style="32" customWidth="1"/>
+    <col min="5" max="16384" width="11.44140625" style="32"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -2491,10 +2554,10 @@
       <selection sqref="A1:D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="2" customWidth="1"/>
-    <col min="2" max="16384" width="11.42578125" style="2"/>
+    <col min="1" max="1" width="11.44140625" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="11.44140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="15" customFormat="1">
@@ -2715,10 +2778,10 @@
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="2" customWidth="1"/>
-    <col min="2" max="16384" width="11.42578125" style="2"/>
+    <col min="1" max="1" width="11.44140625" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="11.44140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="15" customFormat="1">
@@ -2749,7 +2812,7 @@
       <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
@@ -2781,9 +2844,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2816,21 +2879,21 @@
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection sqref="A1:F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="3" customWidth="1"/>
-    <col min="4" max="5" width="10.7109375" style="9" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="11.42578125" style="3"/>
+    <col min="1" max="1" width="10.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" style="3" customWidth="1"/>
+    <col min="4" max="5" width="10.6640625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="11.44140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -2956,7 +3019,7 @@
         <v>23</v>
       </c>
       <c r="D6">
-        <v>0.6</v>
+        <v>8.64</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>24</v>
@@ -2970,13 +3033,13 @@
         <v>9</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>23</v>
       </c>
       <c r="D7">
-        <v>1.75</v>
+        <v>22.68</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>24</v>
@@ -3016,7 +3079,7 @@
         <v>23</v>
       </c>
       <c r="D9">
-        <v>5.2</v>
+        <v>67.680000000000007</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>24</v>
@@ -3036,7 +3099,7 @@
         <v>23</v>
       </c>
       <c r="D10">
-        <v>0.47199999999999998</v>
+        <v>6.12</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>24</v>
@@ -3056,7 +3119,7 @@
         <v>23</v>
       </c>
       <c r="D11">
-        <v>0.5</v>
+        <v>6.48</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>24</v>
@@ -3065,16 +3128,36 @@
         <v>24</v>
       </c>
     </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12">
+        <v>23.62</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="B10:B11">
-    <cfRule type="expression" dxfId="22" priority="1">
+  <conditionalFormatting sqref="B10:B12">
+    <cfRule type="expression" dxfId="4" priority="1">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations xWindow="307" yWindow="342" count="3">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Maximum commodity use per hour" prompt="For stock commodities, this value limits the energy use per hour (MW)._x000a_" sqref="F1" xr:uid="{00000000-0002-0000-0200-000000000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Maximum commodity use" prompt="For stock commodities, this value limits annual use (MWh) of this commodity. For CO2, this value limits the amount of emissions (t_CO2). If simulation timespan does not cover a full year, the sums are multiplied accordingly before (cf. 'weight' in urbs)." sqref="E1" xr:uid="{00000000-0002-0000-0200-000001000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Commodity price (€/MWh)" prompt="Cost for purchasing one unit (MWh) of a stock or buy commodity. Revenue for selling one unit (MWh) of a sell commodity. Cost for creating one unit of environmental commodity._x000a__x000a_Multiplier for sheet &quot;Buy-Sell-Price&quot; for commodity types &quot;Buy&quot; and &quot;Sell&quot;._x000a_" sqref="D1" xr:uid="{00000000-0002-0000-0200-000002000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Maximum commodity use per hour" prompt="For stock commodities, this value limits the energy use per hour (MW)._x000a_" sqref="F1" xr:uid="{737304EE-DF18-42D7-8893-3DE1D26EEDDE}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Maximum commodity use" prompt="For stock commodities, this value limits annual use (MWh) of this commodity. For CO2, this value limits the amount of emissions (t_CO2). If simulation timespan does not cover a full year, the sums are multiplied accordingly before (cf. 'weight' in urbs)." sqref="E1" xr:uid="{A4C1637F-D910-4633-AA31-E79E14D2B7C7}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Commodity price (€/MWh)" prompt="Cost for purchasing one unit (MWh) of a stock or buy commodity. Revenue for selling one unit (MWh) of a sell commodity. Cost for creating one unit of environmental commodity._x000a__x000a_Multiplier for sheet &quot;Buy-Sell-Price&quot; for commodity types &quot;Buy&quot; and &quot;Sell&quot;._x000a_" sqref="D1" xr:uid="{1919A6A1-E49E-459E-8A7A-FB32CB494DB0}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3086,29 +3169,29 @@
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="20" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" style="20" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="20" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" style="20" customWidth="1"/>
+    <col min="4" max="4" width="20.88671875" style="20" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="20" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" style="3" customWidth="1"/>
     <col min="7" max="7" width="24" style="20" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" style="20" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" style="22" customWidth="1"/>
-    <col min="10" max="10" width="16.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.5703125" style="3" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" style="3" customWidth="1"/>
-    <col min="15" max="16384" width="11.42578125" style="3"/>
+    <col min="8" max="8" width="10.6640625" style="20" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" style="22" customWidth="1"/>
+    <col min="10" max="10" width="16.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5546875" style="3" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" style="23" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.44140625" style="3" customWidth="1"/>
+    <col min="15" max="16384" width="11.44140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -3644,55 +3727,101 @@
         <v>#N/A</v>
       </c>
     </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="59" t="s">
+        <v>101</v>
+      </c>
+      <c r="C14" s="20">
+        <v>0</v>
+      </c>
+      <c r="D14" s="62">
+        <v>999999</v>
+      </c>
+      <c r="E14" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="51">
+        <v>0.25</v>
+      </c>
+      <c r="G14" s="52">
+        <v>802808.92800000007</v>
+      </c>
+      <c r="H14" s="52">
+        <v>16725.186000000002</v>
+      </c>
+      <c r="I14" s="53">
+        <v>2.6</v>
+      </c>
+      <c r="J14" s="56">
+        <v>0</v>
+      </c>
+      <c r="K14" s="42">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="L14" s="53">
+        <v>25</v>
+      </c>
+      <c r="M14" s="28" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:L1" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
-  <conditionalFormatting sqref="A2:A13">
-    <cfRule type="expression" dxfId="21" priority="8">
+  <conditionalFormatting sqref="A2:A14">
+    <cfRule type="expression" dxfId="27" priority="9">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:B6">
-    <cfRule type="expression" dxfId="20" priority="10">
+    <cfRule type="expression" dxfId="26" priority="11">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:XFD1 A14:XFD1048576">
-    <cfRule type="expression" dxfId="19" priority="20">
+  <conditionalFormatting sqref="A1:XFD1 A15:XFD1048576 N14:XFD14">
+    <cfRule type="expression" dxfId="25" priority="21">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B5">
-    <cfRule type="expression" dxfId="18" priority="9">
+    <cfRule type="expression" dxfId="24" priority="10">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:B13">
-    <cfRule type="expression" dxfId="17" priority="1">
+    <cfRule type="expression" dxfId="23" priority="2">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C13">
-    <cfRule type="expression" dxfId="16" priority="3">
+  <conditionalFormatting sqref="C2:C14">
+    <cfRule type="expression" dxfId="22" priority="4">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:D13">
-    <cfRule type="expression" dxfId="15" priority="2">
+    <cfRule type="expression" dxfId="21" priority="3">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:M3 C4:M5 E6:M6">
-    <cfRule type="expression" dxfId="14" priority="16">
+    <cfRule type="expression" dxfId="20" priority="17">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:I4">
-    <cfRule type="expression" dxfId="13" priority="13">
+    <cfRule type="expression" dxfId="19" priority="14">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P2:XFD6">
-    <cfRule type="expression" dxfId="12" priority="18">
+    <cfRule type="expression" dxfId="18" priority="19">
+      <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3719,21 +3848,21 @@
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" style="21" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" style="21" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="11.42578125" style="3"/>
+    <col min="1" max="1" width="16.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" style="21" customWidth="1"/>
+    <col min="5" max="5" width="18.5546875" style="21" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="11.44140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -4306,33 +4435,113 @@
         <v>#N/A</v>
       </c>
     </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="59" t="s">
+        <v>101</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D33" s="24">
+        <v>1</v>
+      </c>
+      <c r="E33" s="24">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="59" t="s">
+        <v>101</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D34" s="24">
+        <v>0.6</v>
+      </c>
+      <c r="E34" s="24" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="59" t="s">
+        <v>101</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D35" s="24">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="E35" s="24">
+        <f>D35*E33</f>
+        <v>0.24599999999999997</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:XFD23 F24:XFD32 A33:XFD1048576">
-    <cfRule type="expression" dxfId="11" priority="23">
+  <conditionalFormatting sqref="A1:XFD23 A36:XFD1048576 F24:XFD35">
+    <cfRule type="expression" dxfId="17" priority="29">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:C2 E2">
-    <cfRule type="expression" dxfId="10" priority="42">
+    <cfRule type="expression" dxfId="16" priority="48">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25:C31">
-    <cfRule type="expression" dxfId="9" priority="15">
+    <cfRule type="expression" dxfId="15" priority="21">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32:D32">
-    <cfRule type="expression" dxfId="8" priority="2">
+    <cfRule type="expression" dxfId="14" priority="8">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:E24 A24:A32 D27:E27 D30:E30">
-    <cfRule type="expression" dxfId="7" priority="16">
+    <cfRule type="expression" dxfId="13" priority="22">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D6 D9 D12:D14">
+    <cfRule type="dataBar" priority="38">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="2"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D23">
+    <cfRule type="dataBar" priority="40">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="2"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="dataBar" priority="34">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="2"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10:D11">
     <cfRule type="dataBar" priority="32">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -4341,8 +4550,8 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D23">
-    <cfRule type="dataBar" priority="34">
+  <conditionalFormatting sqref="D17 D19">
+    <cfRule type="dataBar" priority="30">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="2"/>
@@ -4350,7 +4559,7 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8">
+  <conditionalFormatting sqref="D19">
     <cfRule type="dataBar" priority="28">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -4359,8 +4568,8 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D10:D11">
-    <cfRule type="dataBar" priority="26">
+  <conditionalFormatting sqref="D20:D21">
+    <cfRule type="dataBar" priority="37">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="2"/>
@@ -4368,8 +4577,8 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D17 D19">
-    <cfRule type="dataBar" priority="24">
+  <conditionalFormatting sqref="D22:D23">
+    <cfRule type="dataBar" priority="36">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="2"/>
@@ -4377,35 +4586,8 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D19">
-    <cfRule type="dataBar" priority="22">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="2"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D20:D21">
-    <cfRule type="dataBar" priority="31">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="2"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D22:D23">
-    <cfRule type="dataBar" priority="30">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="2"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D24">
-    <cfRule type="dataBar" priority="18">
+    <cfRule type="dataBar" priority="24">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="2"/>
@@ -4419,7 +4601,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26">
-    <cfRule type="dataBar" priority="7">
+    <cfRule type="dataBar" priority="13">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="2"/>
@@ -4431,10 +4613,10 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="8">
+    <cfRule type="expression" dxfId="12" priority="14">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="9">
+    <cfRule type="dataBar" priority="15">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="2"/>
@@ -4448,7 +4630,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27">
-    <cfRule type="dataBar" priority="17">
+    <cfRule type="dataBar" priority="23">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="2"/>
@@ -4462,7 +4644,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29">
-    <cfRule type="dataBar" priority="4">
+    <cfRule type="dataBar" priority="10">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="2"/>
@@ -4474,10 +4656,10 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="5">
+    <cfRule type="expression" dxfId="11" priority="11">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="6">
+    <cfRule type="dataBar" priority="12">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="2"/>
@@ -4491,7 +4673,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="dataBar" priority="1">
+    <cfRule type="dataBar" priority="7">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="2"/>
@@ -4503,7 +4685,7 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="dataBar" priority="3">
+    <cfRule type="dataBar" priority="9">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="2"/>
@@ -4517,7 +4699,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:E1">
-    <cfRule type="dataBar" priority="57">
+    <cfRule type="dataBar" priority="63">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="2"/>
@@ -4526,7 +4708,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30:E30 E31">
-    <cfRule type="dataBar" priority="19">
+    <cfRule type="dataBar" priority="25">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="2"/>
@@ -4539,8 +4721,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D33:E1048576">
-    <cfRule type="dataBar" priority="64">
+  <conditionalFormatting sqref="D36:E1048576">
+    <cfRule type="dataBar" priority="70">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="2"/>
@@ -4549,7 +4731,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E11">
-    <cfRule type="dataBar" priority="41">
+    <cfRule type="dataBar" priority="47">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="2"/>
@@ -4558,7 +4740,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E14">
-    <cfRule type="dataBar" priority="40">
+    <cfRule type="dataBar" priority="46">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="2"/>
@@ -4567,6 +4749,24 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15:E16">
+    <cfRule type="dataBar" priority="49">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="2"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17:E19">
+    <cfRule type="dataBar" priority="44">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="2"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E20:E21">
     <cfRule type="dataBar" priority="43">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -4575,8 +4775,8 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E17:E19">
-    <cfRule type="dataBar" priority="38">
+  <conditionalFormatting sqref="E22:E23">
+    <cfRule type="dataBar" priority="42">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="2"/>
@@ -4584,26 +4784,8 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E20:E21">
-    <cfRule type="dataBar" priority="37">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="2"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E22:E23">
-    <cfRule type="dataBar" priority="36">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="2"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E24:E26">
-    <cfRule type="dataBar" priority="21">
+    <cfRule type="dataBar" priority="27">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="2"/>
@@ -4617,12 +4799,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25:E26">
-    <cfRule type="expression" dxfId="4" priority="14">
+    <cfRule type="expression" dxfId="10" priority="20">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27:E28">
-    <cfRule type="dataBar" priority="20">
+    <cfRule type="dataBar" priority="26">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="2"/>
@@ -4636,12 +4818,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28:E29">
-    <cfRule type="expression" dxfId="3" priority="12">
+    <cfRule type="expression" dxfId="9" priority="18">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="dataBar" priority="13">
+    <cfRule type="dataBar" priority="19">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="2"/>
@@ -4655,12 +4837,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31:E32">
-    <cfRule type="expression" dxfId="2" priority="10">
+    <cfRule type="expression" dxfId="8" priority="16">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="dataBar" priority="11">
+    <cfRule type="dataBar" priority="17">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="2"/>
@@ -4671,6 +4853,63 @@
           <x14:id>{FECCE25E-B3E1-4BCE-AC3B-BB042E005AA0}</x14:id>
         </ext>
       </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A33 E34:E35 C33:E33 A34:C35">
+    <cfRule type="expression" dxfId="3" priority="6">
+      <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D33:D35">
+    <cfRule type="expression" dxfId="2" priority="2">
+      <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D34:D35">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="2"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{A5AFB825-13C6-426B-B7F5-6402B0B447A7}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D33:E33 E34:E35">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="2"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{BC50BDC4-63AC-41EE-94E5-E5396C6A4BC3}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D33:D35">
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="2"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{E8059422-031D-423F-B0DB-9B02EF46DC1A}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B33">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
@@ -4868,6 +5107,51 @@
           </x14:cfRule>
           <xm:sqref>E32</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{A5AFB825-13C6-426B-B7F5-6402B0B447A7}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D34:D35</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{BC50BDC4-63AC-41EE-94E5-E5396C6A4BC3}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D33:E33 E34:E35</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{E8059422-031D-423F-B0DB-9B02EF46DC1A}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D33:D35</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>
@@ -4885,20 +5169,20 @@
       <selection activeCell="A7" sqref="A2:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="2" width="10.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="21" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="20" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" style="23" customWidth="1"/>
-    <col min="9" max="11" width="10.7109375" style="20" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" style="21" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" style="20" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" style="23" customWidth="1"/>
+    <col min="9" max="11" width="10.6640625" style="20" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" style="23" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -4951,7 +5235,7 @@
   </sheetData>
   <autoFilter ref="A1:L1" xr:uid="{00000000-0009-0000-0000-000005000000}"/>
   <conditionalFormatting sqref="K1">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="7" priority="1">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4984,27 +5268,27 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="10.7109375" style="23" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.88671875" style="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.6640625" style="23" customWidth="1"/>
+    <col min="10" max="10" width="12.44140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.109375" style="23" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" style="20" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.42578125" style="23" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="12.140625" style="23" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.7109375" style="23" customWidth="1"/>
-    <col min="19" max="19" width="12.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.42578125" style="3" customWidth="1"/>
-    <col min="21" max="16384" width="11.42578125" style="3"/>
+    <col min="13" max="13" width="11.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.44140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="12.109375" style="23" customWidth="1"/>
+    <col min="17" max="17" width="14.88671875" style="23" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.6640625" style="23" customWidth="1"/>
+    <col min="19" max="19" width="12.109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.44140625" style="3" customWidth="1"/>
+    <col min="21" max="16384" width="11.44140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
@@ -5256,7 +5540,7 @@
   </sheetData>
   <autoFilter ref="A1:R1" xr:uid="{00000000-0009-0000-0000-000006000000}"/>
   <conditionalFormatting sqref="P1">
-    <cfRule type="expression" dxfId="0" priority="3">
+    <cfRule type="expression" dxfId="6" priority="3">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5295,13 +5579,13 @@
       <selection activeCell="A4" sqref="A2:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.28515625" style="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5359,15 +5643,15 @@
   </sheetPr>
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="2" width="11.42578125" style="2"/>
-    <col min="3" max="3" width="11.42578125" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="11.42578125" style="2"/>
+    <col min="1" max="2" width="11.44140625" style="2"/>
+    <col min="3" max="3" width="11.44140625" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="11.44140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">

--- a/Input/urbs_intertemporal_2050/2025.xlsx
+++ b/Input/urbs_intertemporal_2050/2025.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxoi\GitHub\urbs-extension\result\urbs-20250603T1601\Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxoi\GitHub\urbs-extension\Input\urbs_intertemporal_2050\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDF70029-BC83-4A86-86E5-B5728A965A81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88023C7D-C59C-462C-9C8F-58D18CA8B019}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-5445" windowWidth="38640" windowHeight="21120" tabRatio="796" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="67080" yWindow="-1935" windowWidth="29040" windowHeight="17520" tabRatio="796" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="101">
   <si>
     <t>Property</t>
   </si>
@@ -125,9 +125,6 @@
   </si>
   <si>
     <t>inf</t>
-  </si>
-  <si>
-    <t>Gas</t>
   </si>
   <si>
     <t>CO2</t>
@@ -1921,34 +1918,7 @@
     <cellStyle name="Zelle überprüfen 4" xfId="214" xr:uid="{00000000-0005-0000-0000-0000D6000000}"/>
     <cellStyle name="Zelle überprüfen 5" xfId="215" xr:uid="{00000000-0005-0000-0000-0000D7000000}"/>
   </cellStyles>
-  <dxfs count="29">
-    <dxf>
-      <border>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="26">
     <dxf>
       <border>
         <top style="thin">
@@ -2562,16 +2532,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="15" customFormat="1">
       <c r="A1" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B1" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="D1" s="14" t="s">
         <v>90</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2786,13 +2756,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="15" customFormat="1">
       <c r="A1" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B1" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>92</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -2816,13 +2786,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>94</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -3033,7 +3003,7 @@
         <v>9</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>23</v>
@@ -3053,10 +3023,10 @@
         <v>9</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>27</v>
       </c>
       <c r="D8">
         <v>65</v>
@@ -3073,7 +3043,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>23</v>
@@ -3093,7 +3063,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>23</v>
@@ -3113,7 +3083,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>23</v>
@@ -3133,7 +3103,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>23</v>
@@ -3150,7 +3120,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B10:B12">
-    <cfRule type="expression" dxfId="4" priority="1">
+    <cfRule type="expression" dxfId="25" priority="1">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3171,7 +3141,7 @@
   </sheetPr>
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
@@ -3199,40 +3169,40 @@
         <v>10</v>
       </c>
       <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="D1" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="E1" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="F1" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="G1" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="H1" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="I1" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="J1" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="J1" s="36" t="s">
+      <c r="K1" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="L1" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="M1" s="16" t="s">
         <v>41</v>
-      </c>
-      <c r="M1" s="16" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -3240,7 +3210,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="49" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C2" s="20">
         <v>0</v>
@@ -3281,7 +3251,7 @@
         <v>9</v>
       </c>
       <c r="B3" s="49" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C3" s="20">
         <v>0</v>
@@ -3322,7 +3292,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="49" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C4" s="20">
         <v>0</v>
@@ -3363,7 +3333,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="49" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C5" s="20">
         <v>0</v>
@@ -3404,7 +3374,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C6" s="20">
         <v>0</v>
@@ -3445,7 +3415,7 @@
         <v>9</v>
       </c>
       <c r="B7" s="49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C7" s="20">
         <v>0</v>
@@ -3486,7 +3456,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="49" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C8" s="20">
         <v>0</v>
@@ -3527,7 +3497,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="49" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C9" s="20">
         <v>0</v>
@@ -3568,7 +3538,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="49" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C10" s="20">
         <v>0</v>
@@ -3609,7 +3579,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="49" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C11" s="20">
         <v>0</v>
@@ -3650,7 +3620,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="49" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C12" s="20">
         <v>0</v>
@@ -3691,7 +3661,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="49" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C13" s="20">
         <v>0</v>
@@ -3732,7 +3702,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="59" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C14" s="20">
         <v>0</v>
@@ -3771,57 +3741,52 @@
   </sheetData>
   <autoFilter ref="A1:L1" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <conditionalFormatting sqref="A2:A14">
-    <cfRule type="expression" dxfId="27" priority="9">
+    <cfRule type="expression" dxfId="24" priority="9">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:B6">
-    <cfRule type="expression" dxfId="26" priority="11">
+    <cfRule type="expression" dxfId="23" priority="11">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:XFD1 A15:XFD1048576 N14:XFD14">
-    <cfRule type="expression" dxfId="25" priority="21">
+  <conditionalFormatting sqref="A1:XFD1 N14:XFD14 A15:XFD1048576">
+    <cfRule type="expression" dxfId="22" priority="21">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B5">
-    <cfRule type="expression" dxfId="24" priority="10">
+    <cfRule type="expression" dxfId="21" priority="10">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B7:B13">
-    <cfRule type="expression" dxfId="23" priority="2">
+  <conditionalFormatting sqref="B7:B14">
+    <cfRule type="expression" dxfId="20" priority="1">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C14">
-    <cfRule type="expression" dxfId="22" priority="4">
+    <cfRule type="expression" dxfId="19" priority="4">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:D13">
-    <cfRule type="expression" dxfId="21" priority="3">
+    <cfRule type="expression" dxfId="18" priority="3">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:M3 C4:M5 E6:M6">
-    <cfRule type="expression" dxfId="20" priority="17">
+    <cfRule type="expression" dxfId="17" priority="17">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:I4">
-    <cfRule type="expression" dxfId="19" priority="14">
+    <cfRule type="expression" dxfId="16" priority="14">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P2:XFD6">
-    <cfRule type="expression" dxfId="18" priority="19">
-      <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B14">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="15" priority="19">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3850,8 +3815,8 @@
   </sheetPr>
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
@@ -3867,30 +3832,30 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s">
         <v>11</v>
       </c>
       <c r="C1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="E1" s="18" t="s">
         <v>53</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="59" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D2" s="24">
         <v>1</v>
@@ -3902,13 +3867,13 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="59" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D3" s="24">
         <v>1</v>
@@ -3920,13 +3885,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="59" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D4" s="24">
         <v>1</v>
@@ -3938,13 +3903,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="59" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D5" s="24">
         <v>1</v>
@@ -3956,13 +3921,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="59" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D6" s="24">
         <v>1</v>
@@ -3973,13 +3938,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="59" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D7" s="24">
         <v>0.41</v>
@@ -3991,13 +3956,13 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="59" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D8" s="24">
         <v>0.36299999999999999</v>
@@ -4008,13 +3973,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="59" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>25</v>
+        <v>98</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D9" s="24">
         <v>1</v>
@@ -4025,13 +3990,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="59" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D10" s="24">
         <v>0.6</v>
@@ -4043,13 +4008,13 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="59" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D11" s="24">
         <v>0.20499999999999999</v>
@@ -4061,13 +4026,13 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="59" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D12" s="24">
         <v>1</v>
@@ -4079,13 +4044,13 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="59" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D13" s="24">
         <v>0.35</v>
@@ -4097,13 +4062,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="59" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D14" s="24">
         <v>0</v>
@@ -4115,13 +4080,13 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="59" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D15" s="24">
         <v>1</v>
@@ -4133,13 +4098,13 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="59" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D16" s="24">
         <v>0.38</v>
@@ -4151,13 +4116,13 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="59" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D17" s="24">
         <v>1</v>
@@ -4168,13 +4133,13 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="59" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18" s="24">
         <v>0.45</v>
@@ -4186,13 +4151,13 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="59" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D19" s="24">
         <v>0.34179999999999999</v>
@@ -4204,13 +4169,13 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="59" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D20" s="24">
         <v>1</v>
@@ -4222,13 +4187,13 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="59" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D21" s="24">
         <v>1</v>
@@ -4240,13 +4205,13 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="59" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D22" s="24">
         <v>1</v>
@@ -4258,13 +4223,13 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="59" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D23" s="24">
         <v>1</v>
@@ -4276,13 +4241,13 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="59" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D24" s="24">
         <v>1</v>
@@ -4294,13 +4259,13 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="59" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D25" s="63">
         <v>0.36</v>
@@ -4312,13 +4277,13 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="59" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D26" s="64">
         <v>3.4180000000000002E-2</v>
@@ -4330,13 +4295,13 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="59" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D27" s="24">
         <v>1</v>
@@ -4348,13 +4313,13 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="59" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="63">
         <v>0.32</v>
@@ -4366,13 +4331,13 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="59" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D29" s="64">
         <v>3.6299999999999999E-2</v>
@@ -4384,13 +4349,13 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="59" t="s">
+        <v>97</v>
+      </c>
+      <c r="B30" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>25</v>
-      </c>
       <c r="C30" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D30" s="24">
         <v>1</v>
@@ -4401,13 +4366,13 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="59" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D31" s="63">
         <v>0.4</v>
@@ -4419,13 +4384,13 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="59" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D32" s="64">
         <v>2.0500000000000001E-2</v>
@@ -4437,13 +4402,13 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="59" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D33" s="24">
         <v>1</v>
@@ -4454,13 +4419,13 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="59" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D34" s="24">
         <v>0.6</v>
@@ -4472,13 +4437,13 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="59" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D35" s="24">
         <v>0.20499999999999999</v>
@@ -4489,28 +4454,38 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:XFD23 A36:XFD1048576 F24:XFD35">
-    <cfRule type="expression" dxfId="17" priority="29">
+  <conditionalFormatting sqref="A24:A33 A34:C35 E34:E35">
+    <cfRule type="expression" dxfId="14" priority="6">
+      <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:XFD8 F24:XFD35 A36:XFD1048576 A10:XFD23 A9 C9:XFD9">
+    <cfRule type="expression" dxfId="13" priority="29">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:C2 E2">
-    <cfRule type="expression" dxfId="16" priority="48">
+    <cfRule type="expression" dxfId="12" priority="48">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B25:C31">
-    <cfRule type="expression" dxfId="15" priority="21">
+  <conditionalFormatting sqref="B25:C29 B31:C31 C30">
+    <cfRule type="expression" dxfId="11" priority="21">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32:D32">
-    <cfRule type="expression" dxfId="14" priority="8">
+    <cfRule type="expression" dxfId="10" priority="8">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B24:E24 A24:A32 D27:E27 D30:E30">
-    <cfRule type="expression" dxfId="13" priority="22">
+  <conditionalFormatting sqref="B24:E24 D27:E27 D30:E30">
+    <cfRule type="expression" dxfId="9" priority="22">
+      <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B33:E33">
+    <cfRule type="expression" dxfId="8" priority="1">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4613,7 +4588,7 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="14">
+    <cfRule type="expression" dxfId="7" priority="14">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
     <cfRule type="dataBar" priority="15">
@@ -4644,6 +4619,21 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29">
+    <cfRule type="dataBar" priority="12">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="2"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{A377CCC3-5A9C-46C9-8803-5FD6731C3849}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="11">
+      <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
+    </cfRule>
     <cfRule type="dataBar" priority="10">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -4656,10 +4646,9 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="11">
-      <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
-    </cfRule>
-    <cfRule type="dataBar" priority="12">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32">
+    <cfRule type="dataBar" priority="9">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="2"/>
@@ -4667,12 +4656,10 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{A377CCC3-5A9C-46C9-8803-5FD6731C3849}</x14:id>
+          <x14:id>{52C1D05A-E946-4407-8E8D-7704136AF907}</x14:id>
         </ext>
       </extLst>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D32">
     <cfRule type="dataBar" priority="7">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -4685,7 +4672,12 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="dataBar" priority="9">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D33:D35">
+    <cfRule type="expression" dxfId="5" priority="2">
+      <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
+    </cfRule>
+    <cfRule type="dataBar" priority="5">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="2"/>
@@ -4693,7 +4685,21 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{52C1D05A-E946-4407-8E8D-7704136AF907}</x14:id>
+          <x14:id>{E8059422-031D-423F-B0DB-9B02EF46DC1A}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D34:D35">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="2"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{A5AFB825-13C6-426B-B7F5-6402B0B447A7}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4717,6 +4723,20 @@
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{BA489CCE-F559-44AD-8A75-1E9B55195C33}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D33:E33 E34:E35">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="2"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{BC50BDC4-63AC-41EE-94E5-E5396C6A4BC3}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4799,7 +4819,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25:E26">
-    <cfRule type="expression" dxfId="10" priority="20">
+    <cfRule type="expression" dxfId="4" priority="20">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4818,7 +4838,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28:E29">
-    <cfRule type="expression" dxfId="9" priority="18">
+    <cfRule type="expression" dxfId="3" priority="18">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4837,7 +4857,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31:E32">
-    <cfRule type="expression" dxfId="8" priority="16">
+    <cfRule type="expression" dxfId="2" priority="16">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4853,63 +4873,6 @@
           <x14:id>{FECCE25E-B3E1-4BCE-AC3B-BB042E005AA0}</x14:id>
         </ext>
       </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A33 E34:E35 C33:E33 A34:C35">
-    <cfRule type="expression" dxfId="3" priority="6">
-      <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D33:D35">
-    <cfRule type="expression" dxfId="2" priority="2">
-      <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D34:D35">
-    <cfRule type="dataBar" priority="3">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="2"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{A5AFB825-13C6-426B-B7F5-6402B0B447A7}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D33:E33 E34:E35">
-    <cfRule type="dataBar" priority="4">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="2"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{BC50BDC4-63AC-41EE-94E5-E5396C6A4BC3}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D33:D35">
-    <cfRule type="dataBar" priority="5">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="2"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{E8059422-031D-423F-B0DB-9B02EF46DC1A}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B33">
-    <cfRule type="expression" dxfId="1" priority="1">
-      <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
@@ -4979,7 +4942,7 @@
           <xm:sqref>D27</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{AD5BF277-31E2-42C0-A967-E768405FD40A}">
+          <x14:cfRule type="dataBar" id="{A377CCC3-5A9C-46C9-8803-5FD6731C3849}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -4991,7 +4954,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{A377CCC3-5A9C-46C9-8803-5FD6731C3849}">
+          <x14:cfRule type="dataBar" id="{AD5BF277-31E2-42C0-A967-E768405FD40A}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -5006,6 +4969,18 @@
           <xm:sqref>D29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{52C1D05A-E946-4407-8E8D-7704136AF907}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
           <x14:cfRule type="dataBar" id="{D3D934C3-A578-4A49-B389-22CB0C475535}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
@@ -5018,7 +4993,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{52C1D05A-E946-4407-8E8D-7704136AF907}">
+          <xm:sqref>D32</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{E8059422-031D-423F-B0DB-9B02EF46DC1A}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -5030,7 +5008,22 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D32</xm:sqref>
+          <xm:sqref>D33:D35</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{A5AFB825-13C6-426B-B7F5-6402B0B447A7}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D34:D35</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{BA489CCE-F559-44AD-8A75-1E9B55195C33}">
@@ -5046,6 +5039,21 @@
             </x14:dataBar>
           </x14:cfRule>
           <xm:sqref>D30:E30 E31</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{BC50BDC4-63AC-41EE-94E5-E5396C6A4BC3}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D33:E33 E34:E35</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{8C9791CD-D2D9-4A28-8FD9-974C227D0DAE}">
@@ -5107,51 +5115,6 @@
           </x14:cfRule>
           <xm:sqref>E32</xm:sqref>
         </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{A5AFB825-13C6-426B-B7F5-6402B0B447A7}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>2</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D34:D35</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{BC50BDC4-63AC-41EE-94E5-E5396C6A4BC3}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>2</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D33:E33 E34:E35</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{E8059422-031D-423F-B0DB-9B02EF46DC1A}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>2</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D33:D35</xm:sqref>
-        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>
@@ -5187,55 +5150,55 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" t="s">
         <v>57</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>58</v>
-      </c>
-      <c r="C1" t="s">
-        <v>59</v>
       </c>
       <c r="D1" t="s">
         <v>11</v>
       </c>
       <c r="E1" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="M1" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="F1" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="H1" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="I1" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="J1" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="K1" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="L1" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="M1" s="16" t="s">
+      <c r="N1" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="N1" s="16" t="s">
+      <c r="O1" s="16" t="s">
         <v>62</v>
-      </c>
-      <c r="O1" s="16" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:L1" xr:uid="{00000000-0009-0000-0000-000005000000}"/>
   <conditionalFormatting sqref="K1">
-    <cfRule type="expression" dxfId="7" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5296,61 +5259,61 @@
         <v>10</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D1" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="F1" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="G1" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="H1" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="I1" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="J1" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="K1" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="L1" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="M1" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="N1" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="N1" s="16" t="s">
+      <c r="O1" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="O1" s="16" t="s">
+      <c r="P1" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q1" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="R1" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="P1" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q1" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="R1" s="16" t="s">
+      <c r="S1" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="S1" s="16" t="s">
+      <c r="T1" s="36" t="s">
         <v>78</v>
-      </c>
-      <c r="T1" s="36" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:20">
@@ -5358,7 +5321,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C2" s="41" t="s">
         <v>20</v>
@@ -5418,7 +5381,7 @@
         <v>9</v>
       </c>
       <c r="B3" s="41" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C3" s="41" t="s">
         <v>20</v>
@@ -5479,7 +5442,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C4" s="41" t="s">
         <v>20</v>
@@ -5540,7 +5503,7 @@
   </sheetData>
   <autoFilter ref="A1:R1" xr:uid="{00000000-0009-0000-0000-000006000000}"/>
   <conditionalFormatting sqref="P1">
-    <cfRule type="expression" dxfId="6" priority="3">
+    <cfRule type="expression" dxfId="0" priority="3">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5597,19 +5560,19 @@
         <v>11</v>
       </c>
       <c r="C1" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="D1" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="E1" s="17" t="s">
+      <c r="F1" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="G1" s="17" t="s">
         <v>85</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -5656,10 +5619,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>87</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:2">

--- a/Input/urbs_intertemporal_2050/2025.xlsx
+++ b/Input/urbs_intertemporal_2050/2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxoi\GitHub\urbs-extension\Input\urbs_intertemporal_2050\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88023C7D-C59C-462C-9C8F-58D18CA8B019}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E450AE4-76A4-427D-854E-07CB57E8AF95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="67080" yWindow="-1935" windowWidth="29040" windowHeight="17520" tabRatio="796" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="67080" yWindow="-1935" windowWidth="29040" windowHeight="17520" tabRatio="796" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="95">
   <si>
     <t>Property</t>
   </si>
@@ -100,15 +100,9 @@
     <t>maxperhour</t>
   </si>
   <si>
-    <t>WindOff</t>
-  </si>
-  <si>
     <t>SupIm</t>
   </si>
   <si>
-    <t>WindOn</t>
-  </si>
-  <si>
     <t>Hydro</t>
   </si>
   <si>
@@ -178,12 +172,6 @@
     <t>area-per-cap</t>
   </si>
   <si>
-    <t>Wind (onshore)</t>
-  </si>
-  <si>
-    <t>Wind (offshore)</t>
-  </si>
-  <si>
     <t>Hydro (run-of-river)</t>
   </si>
   <si>
@@ -314,12 +302,6 @@
   </si>
   <si>
     <t>EU27.Elec</t>
-  </si>
-  <si>
-    <t>EU27.WindOff</t>
-  </si>
-  <si>
-    <t>EU27.WindOn</t>
   </si>
   <si>
     <t>EU27.Hydro</t>
@@ -1918,52 +1900,7 @@
     <cellStyle name="Zelle überprüfen 4" xfId="214" xr:uid="{00000000-0005-0000-0000-0000D6000000}"/>
     <cellStyle name="Zelle überprüfen 5" xfId="215" xr:uid="{00000000-0005-0000-0000-0000D7000000}"/>
   </cellStyles>
-  <dxfs count="26">
-    <dxf>
-      <border>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="21">
     <dxf>
       <border>
         <top style="thin">
@@ -2518,10 +2455,10 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="B1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
@@ -2530,208 +2467,119 @@
     <col min="2" max="16384" width="11.44140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="15" customFormat="1">
+    <row r="1" spans="1:2" s="15" customFormat="1">
       <c r="A1" s="13" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="5">
         <v>0</v>
       </c>
       <c r="B2" s="27">
         <v>0</v>
       </c>
-      <c r="C2" s="27">
-        <v>0</v>
-      </c>
-      <c r="D2" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>0.48099999999999998</v>
-      </c>
-      <c r="C3">
-        <v>0.3</v>
-      </c>
-      <c r="D3" s="60">
+      <c r="B3" s="60">
         <v>0.20699999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:2">
       <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>0.48099999999999998</v>
-      </c>
-      <c r="C4">
-        <v>0.3</v>
-      </c>
-      <c r="D4" s="60">
+      <c r="B4" s="60">
         <v>0.20699999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:2">
       <c r="A5" s="5">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>0.48099999999999998</v>
-      </c>
-      <c r="C5">
-        <v>0.3</v>
-      </c>
-      <c r="D5" s="60">
+      <c r="B5" s="60">
         <v>0.20699999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:2">
       <c r="A6" s="5">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>0.48099999999999998</v>
-      </c>
-      <c r="C6">
-        <v>0.3</v>
-      </c>
-      <c r="D6" s="60">
+      <c r="B6" s="60">
         <v>0.20699999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:2">
       <c r="A7" s="5">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>0.48099999999999998</v>
-      </c>
-      <c r="C7">
-        <v>0.3</v>
-      </c>
-      <c r="D7" s="60">
+      <c r="B7" s="60">
         <v>0.20699999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:2">
       <c r="A8" s="5">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>0.48099999999999998</v>
-      </c>
-      <c r="C8">
-        <v>0.3</v>
-      </c>
-      <c r="D8" s="60">
+      <c r="B8" s="60">
         <v>0.20699999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:2">
       <c r="A9" s="5">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>0.48099999999999998</v>
-      </c>
-      <c r="C9">
-        <v>0.3</v>
-      </c>
-      <c r="D9" s="60">
+      <c r="B9" s="60">
         <v>0.20699999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:2">
       <c r="A10" s="5">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>0.48099999999999998</v>
-      </c>
-      <c r="C10">
-        <v>0.3</v>
-      </c>
-      <c r="D10" s="60">
+      <c r="B10" s="60">
         <v>0.20699999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:2">
       <c r="A11" s="5">
         <v>9</v>
       </c>
-      <c r="B11">
-        <v>0.48099999999999998</v>
-      </c>
-      <c r="C11">
-        <v>0.3</v>
-      </c>
-      <c r="D11" s="60">
+      <c r="B11" s="60">
         <v>0.20699999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:2">
       <c r="A12" s="5">
         <v>10</v>
       </c>
-      <c r="B12">
-        <v>0.48099999999999998</v>
-      </c>
-      <c r="C12">
-        <v>0.3</v>
-      </c>
-      <c r="D12" s="60">
+      <c r="B12" s="60">
         <v>0.20699999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:2">
       <c r="A13" s="5">
         <v>11</v>
       </c>
-      <c r="B13">
-        <v>0.48099999999999998</v>
-      </c>
-      <c r="C13">
-        <v>0.3</v>
-      </c>
-      <c r="D13" s="60">
+      <c r="B13" s="60">
         <v>0.20699999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:2">
       <c r="A14" s="5">
         <v>12</v>
       </c>
-      <c r="B14">
-        <v>0.48099999999999998</v>
-      </c>
-      <c r="C14">
-        <v>0.3</v>
-      </c>
-      <c r="D14" s="60">
+      <c r="B14" s="60">
         <v>0.20699999999999999</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="3">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Capacity factor Wind" prompt="Normalized capacity factor (maximum value 1) of wind power. Determines EPrIn of processes with input commodity Wind." sqref="B1" xr:uid="{379F9A3E-9259-47B0-A363-8051A3347182}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Capacity factor Hydro" prompt="Normalized capacity factor (maximum value 1) of hydro power. Determines EPrIn of processes with input commodity Hydro." sqref="C1" xr:uid="{32974DE1-7390-4676-BCA0-D4D53CED5139}"/>
-    <dataValidation allowBlank="1" showErrorMessage="1" sqref="B2:C2" xr:uid="{10044C9F-A91F-471F-B5B8-C512EB8C4986}"/>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -2756,13 +2604,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="15" customFormat="1">
       <c r="A1" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>86</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -2786,13 +2634,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2849,10 +2697,10 @@
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F12"/>
+      <selection activeCell="A3" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
@@ -2891,10 +2739,10 @@
         <v>9</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>17</v>
       </c>
       <c r="D2" s="28" t="e">
         <f>NA()</f>
@@ -2917,7 +2765,7 @@
         <v>18</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D3" s="28" t="e">
         <f>NA()</f>
@@ -2937,22 +2785,19 @@
         <v>9</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="28" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E4" s="28" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F4" s="28" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
+        <v>21</v>
+      </c>
+      <c r="D4">
+        <v>8.64</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2960,22 +2805,19 @@
         <v>9</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="28" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E5" s="28" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F5" s="28" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
+      <c r="D5">
+        <v>22.68</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2983,19 +2825,19 @@
         <v>9</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6">
+        <v>65</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6">
-        <v>8.64</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>24</v>
+      <c r="F6" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3003,19 +2845,19 @@
         <v>9</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>98</v>
+        <v>25</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D7">
-        <v>22.68</v>
+        <v>67.680000000000007</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3023,19 +2865,19 @@
         <v>9</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D8">
-        <v>65</v>
+        <v>6.12</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3046,16 +2888,16 @@
         <v>27</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D9">
-        <v>67.680000000000007</v>
+        <v>6.48</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3063,64 +2905,24 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>28</v>
+        <v>93</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D10">
-        <v>6.12</v>
+        <v>23.62</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11">
-        <v>6.48</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12">
-        <v>23.62</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B10:B12">
-    <cfRule type="expression" dxfId="25" priority="1">
+  <conditionalFormatting sqref="B8:B10">
+    <cfRule type="expression" dxfId="20" priority="1">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3139,10 +2941,10 @@
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="A3" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
@@ -3169,40 +2971,40 @@
         <v>10</v>
       </c>
       <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="E1" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="F1" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="G1" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="H1" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="I1" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="J1" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="K1" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="J1" s="36" t="s">
+      <c r="L1" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="M1" s="16" t="s">
         <v>39</v>
-      </c>
-      <c r="L1" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="M1" s="16" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -3210,27 +3012,27 @@
         <v>9</v>
       </c>
       <c r="B2" s="49" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C2" s="20">
         <v>0</v>
       </c>
-      <c r="D2" s="62">
-        <v>379885</v>
+      <c r="D2" s="55">
+        <v>46710</v>
       </c>
       <c r="E2" s="50" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F2" s="51">
         <v>0</v>
       </c>
       <c r="G2" s="52">
-        <v>1187151.4952</v>
+        <v>2731780.38</v>
       </c>
       <c r="H2" s="52">
-        <v>14639.04184</v>
-      </c>
-      <c r="I2" s="53">
+        <v>9923.6103600000006</v>
+      </c>
+      <c r="I2" s="52">
         <v>0</v>
       </c>
       <c r="J2" s="53">
@@ -3240,7 +3042,7 @@
         <v>7.0999999999999994E-2</v>
       </c>
       <c r="L2" s="53">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="M2" s="28" t="e">
         <v>#N/A</v>
@@ -3251,28 +3053,28 @@
         <v>9</v>
       </c>
       <c r="B3" s="49" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C3" s="20">
         <v>0</v>
       </c>
-      <c r="D3" s="62">
-        <v>240293.44961681674</v>
+      <c r="D3" s="55">
+        <v>59840</v>
       </c>
       <c r="E3" s="50" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F3" s="51">
         <v>0</v>
       </c>
-      <c r="G3" s="52">
-        <v>2204404.6216000002</v>
-      </c>
-      <c r="H3" s="52">
-        <v>41352.62184</v>
+      <c r="G3" s="53">
+        <v>3345037.2</v>
+      </c>
+      <c r="H3" s="53">
+        <v>28432.799999999999</v>
       </c>
       <c r="I3" s="53">
-        <v>0</v>
+        <v>0.35699999999999998</v>
       </c>
       <c r="J3" s="53">
         <v>0</v>
@@ -3281,7 +3083,7 @@
         <v>7.0999999999999994E-2</v>
       </c>
       <c r="L3" s="53">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="M3" s="28" t="e">
         <v>#N/A</v>
@@ -3292,28 +3094,28 @@
         <v>9</v>
       </c>
       <c r="B4" s="49" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C4" s="20">
         <v>0</v>
       </c>
-      <c r="D4" s="55">
-        <v>46710</v>
+      <c r="D4" s="62">
+        <v>999999</v>
       </c>
       <c r="E4" s="50" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F4" s="51">
-        <v>0</v>
-      </c>
-      <c r="G4" s="52">
-        <v>2731780.38</v>
-      </c>
-      <c r="H4" s="52">
-        <v>9923.6103600000006</v>
+        <v>0.5</v>
+      </c>
+      <c r="G4" s="56">
+        <v>1784013.3448000001</v>
+      </c>
+      <c r="H4" s="57">
+        <v>28544.213516799999</v>
       </c>
       <c r="I4" s="52">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="J4" s="53">
         <v>0</v>
@@ -3322,7 +3124,7 @@
         <v>7.0999999999999994E-2</v>
       </c>
       <c r="L4" s="53">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="M4" s="28" t="e">
         <v>#N/A</v>
@@ -3333,28 +3135,28 @@
         <v>9</v>
       </c>
       <c r="B5" s="49" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C5" s="20">
         <v>0</v>
       </c>
-      <c r="D5" s="55">
-        <v>59840</v>
+      <c r="D5" s="62">
+        <v>999999</v>
       </c>
       <c r="E5" s="50" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F5" s="51">
-        <v>0</v>
-      </c>
-      <c r="G5" s="53">
-        <v>3345037.2</v>
-      </c>
-      <c r="H5" s="53">
-        <v>28432.799999999999</v>
+        <v>0.65</v>
+      </c>
+      <c r="G5" s="52">
+        <v>2230016.6809999999</v>
+      </c>
+      <c r="H5" s="52">
+        <v>52182.390330800001</v>
       </c>
       <c r="I5" s="53">
-        <v>0.35699999999999998</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="J5" s="53">
         <v>0</v>
@@ -3363,7 +3165,7 @@
         <v>7.0999999999999994E-2</v>
       </c>
       <c r="L5" s="53">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="M5" s="28" t="e">
         <v>#N/A</v>
@@ -3374,7 +3176,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="49" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C6" s="20">
         <v>0</v>
@@ -3383,28 +3185,28 @@
         <v>999999</v>
       </c>
       <c r="E6" s="50" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F6" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="G6" s="56">
-        <v>1784013.3448000001</v>
-      </c>
-      <c r="H6" s="57">
-        <v>28544.213516799999</v>
-      </c>
-      <c r="I6" s="52">
-        <v>2.7</v>
-      </c>
-      <c r="J6" s="53">
+        <v>0.25</v>
+      </c>
+      <c r="G6" s="52">
+        <v>802808.92800000007</v>
+      </c>
+      <c r="H6" s="52">
+        <v>16725.186000000002</v>
+      </c>
+      <c r="I6" s="53">
+        <v>2.6</v>
+      </c>
+      <c r="J6" s="56">
         <v>0</v>
       </c>
       <c r="K6" s="42">
         <v>7.0999999999999994E-2</v>
       </c>
       <c r="L6" s="53">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="M6" s="28" t="e">
         <v>#N/A</v>
@@ -3415,28 +3217,28 @@
         <v>9</v>
       </c>
       <c r="B7" s="49" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C7" s="20">
         <v>0</v>
       </c>
-      <c r="D7" s="62">
-        <v>999999</v>
+      <c r="D7" s="54">
+        <v>94200</v>
       </c>
       <c r="E7" s="50" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F7" s="51">
-        <v>0.65</v>
+        <v>0</v>
       </c>
       <c r="G7" s="52">
-        <v>2230016.6809999999</v>
-      </c>
-      <c r="H7" s="52">
-        <v>52182.390330800001</v>
-      </c>
-      <c r="I7" s="53">
-        <v>4.5999999999999996</v>
+        <v>5909565.7200000007</v>
+      </c>
+      <c r="H7" s="57">
+        <v>133801.48800000001</v>
+      </c>
+      <c r="I7" s="52">
+        <v>7.1</v>
       </c>
       <c r="J7" s="53">
         <v>0</v>
@@ -3445,7 +3247,7 @@
         <v>7.0999999999999994E-2</v>
       </c>
       <c r="L7" s="53">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="M7" s="28" t="e">
         <v>#N/A</v>
@@ -3456,30 +3258,30 @@
         <v>9</v>
       </c>
       <c r="B8" s="49" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C8" s="20">
         <v>0</v>
       </c>
-      <c r="D8" s="62">
-        <v>999999</v>
+      <c r="D8" s="20">
+        <v>999999999999</v>
       </c>
       <c r="E8" s="50" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F8" s="51">
-        <v>0.25</v>
-      </c>
-      <c r="G8" s="52">
-        <v>802808.92800000007</v>
-      </c>
-      <c r="H8" s="52">
-        <v>16725.186000000002</v>
-      </c>
-      <c r="I8" s="53">
-        <v>2.6</v>
-      </c>
-      <c r="J8" s="56">
+        <v>0</v>
+      </c>
+      <c r="G8" s="58">
+        <v>5648000</v>
+      </c>
+      <c r="H8" s="58">
+        <v>0</v>
+      </c>
+      <c r="I8" s="58">
+        <v>44.2</v>
+      </c>
+      <c r="J8" s="53">
         <v>0</v>
       </c>
       <c r="K8" s="42">
@@ -3497,37 +3299,37 @@
         <v>9</v>
       </c>
       <c r="B9" s="49" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="C9" s="20">
         <v>0</v>
       </c>
-      <c r="D9" s="54">
-        <v>94200</v>
+      <c r="D9" s="20">
+        <v>0</v>
       </c>
       <c r="E9" s="50" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F9" s="51">
-        <v>0</v>
-      </c>
-      <c r="G9" s="52">
-        <v>5909565.7200000007</v>
-      </c>
-      <c r="H9" s="57">
-        <v>133801.48800000001</v>
-      </c>
-      <c r="I9" s="52">
-        <v>7.1</v>
-      </c>
-      <c r="J9" s="53">
+        <v>0.5</v>
+      </c>
+      <c r="G9" s="53">
+        <v>3791028.3572399998</v>
+      </c>
+      <c r="H9" s="53">
+        <v>84183.129702000006</v>
+      </c>
+      <c r="I9" s="53">
+        <v>6.75</v>
+      </c>
+      <c r="J9" s="56">
         <v>0</v>
       </c>
       <c r="K9" s="42">
         <v>7.0999999999999994E-2</v>
       </c>
       <c r="L9" s="53">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="M9" s="28" t="e">
         <v>#N/A</v>
@@ -3538,37 +3340,37 @@
         <v>9</v>
       </c>
       <c r="B10" s="49" t="s">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="C10" s="20">
         <v>0</v>
       </c>
       <c r="D10" s="20">
-        <v>999999999999</v>
+        <v>0</v>
       </c>
       <c r="E10" s="50" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F10" s="51">
-        <v>0</v>
-      </c>
-      <c r="G10" s="58">
-        <v>5648000</v>
-      </c>
-      <c r="H10" s="58">
-        <v>0</v>
-      </c>
-      <c r="I10" s="58">
-        <v>44.2</v>
-      </c>
-      <c r="J10" s="53">
+        <v>0.65</v>
+      </c>
+      <c r="G10" s="53">
+        <v>4014030.0248799999</v>
+      </c>
+      <c r="H10" s="53">
+        <v>76489.572146799997</v>
+      </c>
+      <c r="I10" s="53">
+        <v>6.96</v>
+      </c>
+      <c r="J10" s="56">
         <v>0</v>
       </c>
       <c r="K10" s="42">
         <v>7.0999999999999994E-2</v>
       </c>
       <c r="L10" s="53">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="M10" s="28" t="e">
         <v>#N/A</v>
@@ -3579,7 +3381,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="49" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C11" s="20">
         <v>0</v>
@@ -3588,19 +3390,19 @@
         <v>0</v>
       </c>
       <c r="E11" s="50" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F11" s="51">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G11" s="53">
-        <v>3791028.3572399998</v>
+        <v>1951271.6999999997</v>
       </c>
       <c r="H11" s="53">
-        <v>84183.129702000006</v>
+        <v>45715.5</v>
       </c>
       <c r="I11" s="53">
-        <v>6.75</v>
+        <v>3.46</v>
       </c>
       <c r="J11" s="56">
         <v>0</v>
@@ -3609,7 +3411,7 @@
         <v>7.0999999999999994E-2</v>
       </c>
       <c r="L11" s="53">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="M11" s="28" t="e">
         <v>#N/A</v>
@@ -3619,29 +3421,29 @@
       <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="49" t="s">
-        <v>96</v>
+      <c r="B12" s="59" t="s">
+        <v>94</v>
       </c>
       <c r="C12" s="20">
         <v>0</v>
       </c>
-      <c r="D12" s="20">
-        <v>0</v>
+      <c r="D12" s="62">
+        <v>999999</v>
       </c>
       <c r="E12" s="50" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F12" s="51">
-        <v>0.65</v>
-      </c>
-      <c r="G12" s="53">
-        <v>4014030.0248799999</v>
-      </c>
-      <c r="H12" s="53">
-        <v>76489.572146799997</v>
+        <v>0.25</v>
+      </c>
+      <c r="G12" s="52">
+        <v>802808.92800000007</v>
+      </c>
+      <c r="H12" s="52">
+        <v>16725.186000000002</v>
       </c>
       <c r="I12" s="53">
-        <v>6.96</v>
+        <v>2.6</v>
       </c>
       <c r="J12" s="56">
         <v>0</v>
@@ -3650,143 +3452,41 @@
         <v>7.0999999999999994E-2</v>
       </c>
       <c r="L12" s="53">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="M12" s="28" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="49" t="s">
-        <v>97</v>
-      </c>
-      <c r="C13" s="20">
-        <v>0</v>
-      </c>
-      <c r="D13" s="20">
-        <v>0</v>
-      </c>
-      <c r="E13" s="50" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="51">
-        <v>0.25</v>
-      </c>
-      <c r="G13" s="53">
-        <v>1951271.6999999997</v>
-      </c>
-      <c r="H13" s="53">
-        <v>45715.5</v>
-      </c>
-      <c r="I13" s="53">
-        <v>3.46</v>
-      </c>
-      <c r="J13" s="56">
-        <v>0</v>
-      </c>
-      <c r="K13" s="42">
-        <v>7.0999999999999994E-2</v>
-      </c>
-      <c r="L13" s="53">
-        <v>25</v>
-      </c>
-      <c r="M13" s="28" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="59" t="s">
-        <v>100</v>
-      </c>
-      <c r="C14" s="20">
-        <v>0</v>
-      </c>
-      <c r="D14" s="62">
-        <v>999999</v>
-      </c>
-      <c r="E14" s="50" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="51">
-        <v>0.25</v>
-      </c>
-      <c r="G14" s="52">
-        <v>802808.92800000007</v>
-      </c>
-      <c r="H14" s="52">
-        <v>16725.186000000002</v>
-      </c>
-      <c r="I14" s="53">
-        <v>2.6</v>
-      </c>
-      <c r="J14" s="56">
-        <v>0</v>
-      </c>
-      <c r="K14" s="42">
-        <v>7.0999999999999994E-2</v>
-      </c>
-      <c r="L14" s="53">
-        <v>25</v>
-      </c>
-      <c r="M14" s="28" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
   </sheetData>
   <autoFilter ref="A1:L1" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
-  <conditionalFormatting sqref="A2:A14">
-    <cfRule type="expression" dxfId="24" priority="9">
+  <conditionalFormatting sqref="A2:A12 A2:B4 C2:C12 P2:XFD4">
+    <cfRule type="expression" dxfId="19" priority="9">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:B6">
-    <cfRule type="expression" dxfId="23" priority="11">
+  <conditionalFormatting sqref="A1:XFD1 N12:XFD12 A13:XFD1048576">
+    <cfRule type="expression" dxfId="18" priority="21">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:XFD1 N14:XFD14 A15:XFD1048576">
-    <cfRule type="expression" dxfId="22" priority="21">
+  <conditionalFormatting sqref="B5:B12">
+    <cfRule type="expression" dxfId="17" priority="1">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B5">
-    <cfRule type="expression" dxfId="21" priority="10">
+  <conditionalFormatting sqref="D8:D11">
+    <cfRule type="expression" dxfId="16" priority="3">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B7:B14">
-    <cfRule type="expression" dxfId="20" priority="1">
+  <conditionalFormatting sqref="C2:M3 E4:M4">
+    <cfRule type="expression" dxfId="15" priority="17">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C14">
-    <cfRule type="expression" dxfId="19" priority="4">
-      <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D10:D13">
-    <cfRule type="expression" dxfId="18" priority="3">
-      <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:M3 C4:M5 E6:M6">
-    <cfRule type="expression" dxfId="17" priority="17">
-      <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G4:I4">
-    <cfRule type="expression" dxfId="16" priority="14">
-      <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P2:XFD6">
-    <cfRule type="expression" dxfId="15" priority="19">
+  <conditionalFormatting sqref="G2:I2">
+    <cfRule type="expression" dxfId="14" priority="14">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3813,10 +3513,10 @@
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A2:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
@@ -3832,51 +3532,50 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
         <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="59" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D2" s="24">
         <v>1</v>
       </c>
-      <c r="E2" s="24" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
+      <c r="E2" s="24">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="59" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D3" s="24">
-        <v>1</v>
+        <v>0.41</v>
       </c>
       <c r="E3" s="24" t="e">
         <f>NA()</f>
@@ -3888,118 +3587,119 @@
         <v>43</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D4" s="24">
+        <v>0.36299999999999999</v>
+      </c>
+      <c r="E4" s="24">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="24">
         <v>1</v>
       </c>
-      <c r="E4" s="24" t="e">
+      <c r="E5" s="24">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="24">
+        <v>0.6</v>
+      </c>
+      <c r="E6" s="24" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D5" s="24">
+    <row r="7" spans="1:5">
+      <c r="A7" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="24">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="E7" s="24">
+        <f>D7*E5</f>
+        <v>0.24599999999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="59" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="24">
         <v>1</v>
       </c>
-      <c r="E5" s="24" t="e">
+      <c r="E8" s="24" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="59" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D6" s="24">
-        <v>1</v>
-      </c>
-      <c r="E6" s="24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="59" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" s="24">
-        <v>0.41</v>
-      </c>
-      <c r="E7" s="24" t="e">
+    <row r="9" spans="1:5">
+      <c r="A9" s="59" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="24">
+        <v>0.35</v>
+      </c>
+      <c r="E9" s="24" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="59" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8" s="24">
-        <v>0.36299999999999999</v>
-      </c>
-      <c r="E8" s="24">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="59" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D9" s="24">
-        <v>1</v>
-      </c>
-      <c r="E9" s="24">
-        <v>1.2</v>
-      </c>
-    </row>
     <row r="10" spans="1:5">
       <c r="A10" s="59" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D10" s="24">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="E10" s="24" t="e">
         <f>NA()</f>
@@ -4008,34 +3708,34 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="59" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D11" s="24">
-        <v>0.20499999999999999</v>
-      </c>
-      <c r="E11" s="24">
-        <f>D11*E9</f>
-        <v>0.24599999999999997</v>
+        <v>1</v>
+      </c>
+      <c r="E11" s="24" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="59" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D12" s="24">
-        <v>1</v>
+        <v>0.38</v>
       </c>
       <c r="E12" s="24" t="e">
         <f>NA()</f>
@@ -4044,34 +3744,33 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="59" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>55</v>
-      </c>
       <c r="D13" s="24">
-        <v>0.35</v>
-      </c>
-      <c r="E13" s="24" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
+        <v>1</v>
+      </c>
+      <c r="E13" s="24">
+        <v>1.4</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="59" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D14" s="24">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="E14" s="24" t="e">
         <f>NA()</f>
@@ -4080,34 +3779,34 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="59" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D15" s="24">
-        <v>1</v>
-      </c>
-      <c r="E15" s="24" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
+        <v>0.34179999999999999</v>
+      </c>
+      <c r="E15" s="24">
+        <f>D15*E13</f>
+        <v>0.47851999999999995</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="59" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D16" s="24">
-        <v>0.38</v>
+        <v>1</v>
       </c>
       <c r="E16" s="24" t="e">
         <f>NA()</f>
@@ -4116,33 +3815,34 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="59" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D17" s="24">
         <v>1</v>
       </c>
-      <c r="E17" s="24">
-        <v>1.4</v>
+      <c r="E17" s="24" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="59" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D18" s="24">
-        <v>0.45</v>
+        <v>1</v>
       </c>
       <c r="E18" s="24" t="e">
         <f>NA()</f>
@@ -4151,31 +3851,31 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="59" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D19" s="24">
-        <v>0.34179999999999999</v>
-      </c>
-      <c r="E19" s="24">
-        <f>D19*E17</f>
-        <v>0.47851999999999995</v>
+        <v>1</v>
+      </c>
+      <c r="E19" s="24" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="59" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D20" s="24">
         <v>1</v>
@@ -4187,49 +3887,49 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="59" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D21" s="24">
-        <v>1</v>
+        <v>51</v>
+      </c>
+      <c r="D21" s="63">
+        <v>0.36</v>
       </c>
       <c r="E21" s="24" t="e">
-        <f>NA()</f>
+        <f>D21*E19</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="59" t="s">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D22" s="24">
-        <v>1</v>
+        <v>51</v>
+      </c>
+      <c r="D22" s="64">
+        <v>3.4180000000000002E-2</v>
       </c>
       <c r="E22" s="24" t="e">
-        <f>NA()</f>
+        <f>D22*E20</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="59" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D23" s="24">
         <v>1</v>
@@ -4241,34 +3941,34 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="59" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D24" s="24">
-        <v>1</v>
+        <v>51</v>
+      </c>
+      <c r="D24" s="63">
+        <v>0.32</v>
       </c>
       <c r="E24" s="24" t="e">
-        <f>NA()</f>
+        <f>D24*E21</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="59" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D25" s="63">
-        <v>0.36</v>
+        <v>51</v>
+      </c>
+      <c r="D25" s="64">
+        <v>3.6299999999999999E-2</v>
       </c>
       <c r="E25" s="24" t="e">
         <f>D25*E23</f>
@@ -4277,34 +3977,33 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="59" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>25</v>
+        <v>92</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D26" s="64">
-        <v>3.4180000000000002E-2</v>
-      </c>
-      <c r="E26" s="24" t="e">
-        <f>D26*E24</f>
-        <v>#N/A</v>
+        <v>50</v>
+      </c>
+      <c r="D26" s="24">
+        <v>1</v>
+      </c>
+      <c r="E26" s="24">
+        <v>1.2</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="59" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D27" s="24">
-        <v>1</v>
+        <v>51</v>
+      </c>
+      <c r="D27" s="63">
+        <v>0.4</v>
       </c>
       <c r="E27" s="24" t="e">
         <f>NA()</f>
@@ -4313,183 +4012,107 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="59" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D28" s="63">
-        <v>0.32</v>
+        <v>51</v>
+      </c>
+      <c r="D28" s="64">
+        <v>2.0500000000000001E-2</v>
       </c>
       <c r="E28" s="24" t="e">
-        <f>D28*E25</f>
+        <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="59" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>25</v>
+        <v>93</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D29" s="64">
-        <v>3.6299999999999999E-2</v>
-      </c>
-      <c r="E29" s="24" t="e">
-        <f>D29*E27</f>
-        <v>#N/A</v>
+        <v>50</v>
+      </c>
+      <c r="D29" s="24">
+        <v>1</v>
+      </c>
+      <c r="E29" s="24">
+        <v>1.2</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="59" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>98</v>
+        <v>18</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D30" s="24">
-        <v>1</v>
-      </c>
-      <c r="E30" s="24">
-        <v>1.2</v>
+        <v>0.6</v>
+      </c>
+      <c r="E30" s="24" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="59" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D31" s="63">
-        <v>0.4</v>
-      </c>
-      <c r="E31" s="24" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="59" t="s">
-        <v>97</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D32" s="64">
-        <v>2.0500000000000001E-2</v>
-      </c>
-      <c r="E32" s="24" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="59" t="s">
-        <v>100</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D33" s="24">
-        <v>1</v>
-      </c>
-      <c r="E33" s="24">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="59" t="s">
-        <v>100</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D34" s="24">
-        <v>0.6</v>
-      </c>
-      <c r="E34" s="24" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="59" t="s">
-        <v>100</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D35" s="24">
+        <v>51</v>
+      </c>
+      <c r="D31" s="24">
         <v>0.20499999999999999</v>
       </c>
-      <c r="E35" s="24">
-        <f>D35*E33</f>
+      <c r="E31" s="24">
+        <f>D31*E29</f>
         <v>0.24599999999999997</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A24:A33 A34:C35 E34:E35">
-    <cfRule type="expression" dxfId="14" priority="6">
+  <conditionalFormatting sqref="A20:A29 A30:C31 E30:E31 A1:XFD4">
+    <cfRule type="expression" dxfId="13" priority="6">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:XFD8 F24:XFD35 A36:XFD1048576 A10:XFD23 A9 C9:XFD9">
-    <cfRule type="expression" dxfId="13" priority="29">
+  <conditionalFormatting sqref="A5 C5:XFD5 A6:XFD19 F20:XFD31 A32:XFD1048576">
+    <cfRule type="expression" dxfId="12" priority="29">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:C2 E2">
-    <cfRule type="expression" dxfId="12" priority="48">
-      <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B25:C29 B31:C31 C30">
+  <conditionalFormatting sqref="B21:C25 C26:E26 B27:C27">
     <cfRule type="expression" dxfId="11" priority="21">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B32:D32">
+  <conditionalFormatting sqref="B28:D28">
     <cfRule type="expression" dxfId="10" priority="8">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B24:E24 D27:E27 D30:E30">
+  <conditionalFormatting sqref="B20:E20 D23:E23">
     <cfRule type="expression" dxfId="9" priority="22">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B33:E33">
+  <conditionalFormatting sqref="B29:E29">
     <cfRule type="expression" dxfId="8" priority="1">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D6 D9 D12:D14">
+  <conditionalFormatting sqref="D2:D19 E2:E7">
     <cfRule type="dataBar" priority="38">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -4498,16 +4121,7 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D23">
-    <cfRule type="dataBar" priority="40">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="2"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8">
+  <conditionalFormatting sqref="D4">
     <cfRule type="dataBar" priority="34">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -4516,7 +4130,7 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D10:D11">
+  <conditionalFormatting sqref="D6:D7">
     <cfRule type="dataBar" priority="32">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -4525,7 +4139,7 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D17 D19">
+  <conditionalFormatting sqref="D15 D13">
     <cfRule type="dataBar" priority="30">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -4534,7 +4148,7 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D19">
+  <conditionalFormatting sqref="D15">
     <cfRule type="dataBar" priority="28">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -4543,7 +4157,7 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D20:D21">
+  <conditionalFormatting sqref="D16:D17">
     <cfRule type="dataBar" priority="37">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -4552,7 +4166,7 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D22:D23">
+  <conditionalFormatting sqref="D18:D19">
     <cfRule type="dataBar" priority="36">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -4561,7 +4175,7 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D24">
+  <conditionalFormatting sqref="D20">
     <cfRule type="dataBar" priority="24">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -4575,7 +4189,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D26">
+  <conditionalFormatting sqref="D22">
     <cfRule type="dataBar" priority="13">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -4604,7 +4218,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D27">
+  <conditionalFormatting sqref="D23">
     <cfRule type="dataBar" priority="23">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -4618,7 +4232,22 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D29">
+  <conditionalFormatting sqref="D25">
+    <cfRule type="dataBar" priority="10">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="2"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{AD5BF277-31E2-42C0-A967-E768405FD40A}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="11">
+      <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
+    </cfRule>
     <cfRule type="dataBar" priority="12">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -4631,10 +4260,9 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="11">
-      <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
-    </cfRule>
-    <cfRule type="dataBar" priority="10">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D28">
+    <cfRule type="dataBar" priority="7">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="2"/>
@@ -4642,12 +4270,10 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{AD5BF277-31E2-42C0-A967-E768405FD40A}</x14:id>
+          <x14:id>{D3D934C3-A578-4A49-B389-22CB0C475535}</x14:id>
         </ext>
       </extLst>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D32">
     <cfRule type="dataBar" priority="9">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -4660,20 +4286,8 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="dataBar" priority="7">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="2"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{D3D934C3-A578-4A49-B389-22CB0C475535}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D33:D35">
+  <conditionalFormatting sqref="D29:D31">
     <cfRule type="expression" dxfId="5" priority="2">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
@@ -4690,7 +4304,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D34:D35">
+  <conditionalFormatting sqref="D30:D31">
     <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -4713,7 +4327,7 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D30:E30 E31">
+  <conditionalFormatting sqref="D26:E26 E27">
     <cfRule type="dataBar" priority="25">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -4727,7 +4341,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D33:E33 E34:E35">
+  <conditionalFormatting sqref="D29:E29 E30:E31">
     <cfRule type="dataBar" priority="4">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -4741,7 +4355,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D36:E1048576">
+  <conditionalFormatting sqref="D32:E1048576">
     <cfRule type="dataBar" priority="70">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -4750,16 +4364,7 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E11">
-    <cfRule type="dataBar" priority="47">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="2"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E12:E14">
+  <conditionalFormatting sqref="E8:E10">
     <cfRule type="dataBar" priority="46">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -4768,7 +4373,7 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E15:E16">
+  <conditionalFormatting sqref="E11:E12">
     <cfRule type="dataBar" priority="49">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -4777,7 +4382,7 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E17:E19">
+  <conditionalFormatting sqref="E13:E15">
     <cfRule type="dataBar" priority="44">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -4786,7 +4391,7 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E20:E21">
+  <conditionalFormatting sqref="E16:E17">
     <cfRule type="dataBar" priority="43">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -4795,7 +4400,7 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E22:E23">
+  <conditionalFormatting sqref="E18:E19">
     <cfRule type="dataBar" priority="42">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -4804,7 +4409,7 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E24:E26">
+  <conditionalFormatting sqref="E20:E22">
     <cfRule type="dataBar" priority="27">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -4818,12 +4423,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E25:E26">
+  <conditionalFormatting sqref="E21:E22">
     <cfRule type="expression" dxfId="4" priority="20">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E27:E28">
+  <conditionalFormatting sqref="E23:E24">
     <cfRule type="dataBar" priority="26">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -4837,12 +4442,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E28:E29">
+  <conditionalFormatting sqref="E24:E25">
     <cfRule type="expression" dxfId="3" priority="18">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
+  <conditionalFormatting sqref="E25">
     <cfRule type="dataBar" priority="19">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -4856,12 +4461,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E31:E32">
+  <conditionalFormatting sqref="E27:E28">
     <cfRule type="expression" dxfId="2" priority="16">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E32">
+  <conditionalFormatting sqref="E28">
     <cfRule type="dataBar" priority="17">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -4897,7 +4502,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D24</xm:sqref>
+          <xm:sqref>D20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{DC555EA0-E0A3-4937-8DAA-09AB73E812C1}">
@@ -4924,7 +4529,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D26</xm:sqref>
+          <xm:sqref>D22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{17A80BF5-4F14-49E0-A552-F5EF53DAAFE1}">
@@ -4939,9 +4544,21 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D27</xm:sqref>
+          <xm:sqref>D23</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{AD5BF277-31E2-42C0-A967-E768405FD40A}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
           <x14:cfRule type="dataBar" id="{A377CCC3-5A9C-46C9-8803-5FD6731C3849}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
@@ -4954,7 +4571,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{AD5BF277-31E2-42C0-A967-E768405FD40A}">
+          <xm:sqref>D25</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{D3D934C3-A578-4A49-B389-22CB0C475535}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -4966,9 +4586,6 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D29</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{52C1D05A-E946-4407-8E8D-7704136AF907}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
@@ -4981,19 +4598,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{D3D934C3-A578-4A49-B389-22CB0C475535}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>2</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D32</xm:sqref>
+          <xm:sqref>D28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{E8059422-031D-423F-B0DB-9B02EF46DC1A}">
@@ -5008,7 +4613,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D33:D35</xm:sqref>
+          <xm:sqref>D29:D31</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{A5AFB825-13C6-426B-B7F5-6402B0B447A7}">
@@ -5023,7 +4628,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D34:D35</xm:sqref>
+          <xm:sqref>D30:D31</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{BA489CCE-F559-44AD-8A75-1E9B55195C33}">
@@ -5038,7 +4643,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D30:E30 E31</xm:sqref>
+          <xm:sqref>D26:E26 E27</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{BC50BDC4-63AC-41EE-94E5-E5396C6A4BC3}">
@@ -5053,7 +4658,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D33:E33 E34:E35</xm:sqref>
+          <xm:sqref>D29:E29 E30:E31</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{8C9791CD-D2D9-4A28-8FD9-974C227D0DAE}">
@@ -5068,7 +4673,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E24:E26</xm:sqref>
+          <xm:sqref>E20:E22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{7A12A122-A5C3-4A6B-A77D-1A7781DED8CD}">
@@ -5083,7 +4688,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E27:E28</xm:sqref>
+          <xm:sqref>E23:E24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{DDB2FA35-E285-4768-93C8-24BA0BFCF641}">
@@ -5098,7 +4703,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E29</xm:sqref>
+          <xm:sqref>E25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{FECCE25E-B3E1-4BCE-AC3B-BB042E005AA0}">
@@ -5113,7 +4718,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E32</xm:sqref>
+          <xm:sqref>E28</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -5150,49 +4755,49 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D1" t="s">
         <v>11</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F1" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="H1" s="16" t="s">
+      <c r="I1" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="J1" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="K1" s="16" t="s">
-        <v>39</v>
-      </c>
       <c r="L1" s="16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M1" s="16" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="N1" s="16" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="O1" s="16" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -5259,61 +4864,61 @@
         <v>10</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D1" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="H1" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="I1" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="J1" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="K1" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="L1" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="M1" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="N1" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="O1" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="P1" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q1" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="R1" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="S1" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="N1" s="16" t="s">
+      <c r="T1" s="36" t="s">
         <v>74</v>
-      </c>
-      <c r="O1" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="P1" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q1" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="R1" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="S1" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="T1" s="36" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:20">
@@ -5321,22 +4926,22 @@
         <v>9</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C2" s="41" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D2" s="39">
         <v>0</v>
       </c>
       <c r="E2" s="39" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F2" s="39">
         <v>0</v>
       </c>
       <c r="G2" s="39" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H2" s="44">
         <v>0.69</v>
@@ -5381,22 +4986,22 @@
         <v>9</v>
       </c>
       <c r="B3" s="41" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C3" s="41" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D3" s="39">
         <v>0</v>
       </c>
       <c r="E3" s="39" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F3" s="39">
         <v>0</v>
       </c>
       <c r="G3" s="39" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H3" s="45">
         <v>0.9</v>
@@ -5442,22 +5047,22 @@
         <v>9</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C4" s="41" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D4" s="39">
         <v>0</v>
       </c>
       <c r="E4" s="39" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F4" s="39">
         <v>0</v>
       </c>
       <c r="G4" s="39" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H4" s="48">
         <v>0.86</v>
@@ -5560,19 +5165,19 @@
         <v>11</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D1" s="34" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -5619,10 +5224,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="13" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:2">

--- a/Input/urbs_intertemporal_2050/2025.xlsx
+++ b/Input/urbs_intertemporal_2050/2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxoi\GitHub\urbs-extension\Input\urbs_intertemporal_2050\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E450AE4-76A4-427D-854E-07CB57E8AF95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9483B29-83DD-4F03-8CDF-E08005016DBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="67080" yWindow="-1935" windowWidth="29040" windowHeight="17520" tabRatio="796" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="67080" yWindow="-1935" windowWidth="29040" windowHeight="17520" tabRatio="796" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
@@ -1900,7 +1900,25 @@
     <cellStyle name="Zelle überprüfen 4" xfId="214" xr:uid="{00000000-0005-0000-0000-0000D6000000}"/>
     <cellStyle name="Zelle überprüfen 5" xfId="215" xr:uid="{00000000-0005-0000-0000-0000D7000000}"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="23">
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <top style="thin">
@@ -2457,7 +2475,7 @@
   </sheetPr>
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="B1:C1048576"/>
     </sheetView>
   </sheetViews>
@@ -2922,7 +2940,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B8:B10">
-    <cfRule type="expression" dxfId="20" priority="1">
+    <cfRule type="expression" dxfId="22" priority="1">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3460,33 +3478,33 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:L1" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
-  <conditionalFormatting sqref="A2:A12 A2:B4 C2:C12 P2:XFD4">
-    <cfRule type="expression" dxfId="19" priority="9">
+  <conditionalFormatting sqref="A2:B4 P2:XFD4 A2:A12 C2:C12">
+    <cfRule type="expression" dxfId="21" priority="9">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1 N12:XFD12 A13:XFD1048576">
-    <cfRule type="expression" dxfId="18" priority="21">
+    <cfRule type="expression" dxfId="20" priority="21">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:B12">
-    <cfRule type="expression" dxfId="17" priority="1">
+    <cfRule type="expression" dxfId="19" priority="1">
+      <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:M3 E4:M4">
+    <cfRule type="expression" dxfId="18" priority="17">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:D11">
-    <cfRule type="expression" dxfId="16" priority="3">
-      <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:M3 E4:M4">
-    <cfRule type="expression" dxfId="15" priority="17">
+    <cfRule type="expression" dxfId="17" priority="3">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:I2">
-    <cfRule type="expression" dxfId="14" priority="14">
+    <cfRule type="expression" dxfId="16" priority="14">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3515,8 +3533,8 @@
   </sheetPr>
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A2:XFD5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26:E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
@@ -3612,8 +3630,9 @@
       <c r="D5" s="24">
         <v>1</v>
       </c>
-      <c r="E5" s="24">
-        <v>1.2</v>
+      <c r="E5" s="24" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3647,9 +3666,9 @@
       <c r="D7" s="24">
         <v>0.20499999999999999</v>
       </c>
-      <c r="E7" s="24">
-        <f>D7*E5</f>
-        <v>0.24599999999999997</v>
+      <c r="E7" s="24" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3988,8 +4007,9 @@
       <c r="D26" s="24">
         <v>1</v>
       </c>
-      <c r="E26" s="24">
-        <v>1.2</v>
+      <c r="E26" s="24" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -4082,37 +4102,46 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A20:A29 A30:C31 E30:E31 A1:XFD4">
-    <cfRule type="expression" dxfId="13" priority="6">
+  <conditionalFormatting sqref="A5 C5:D5 A8:XFD19 F20:XFD31 A32:XFD1048576 A6:D7 F5:XFD7">
+    <cfRule type="expression" dxfId="15" priority="33">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5 C5:XFD5 A6:XFD19 F20:XFD31 A32:XFD1048576">
-    <cfRule type="expression" dxfId="12" priority="29">
+  <conditionalFormatting sqref="A1:XFD4 A20:A29 A30:C31 E30:E31">
+    <cfRule type="expression" dxfId="14" priority="10">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B21:C25 C26:E26 B27:C27">
-    <cfRule type="expression" dxfId="11" priority="21">
+  <conditionalFormatting sqref="B21:C25 C26:D26 B27:C27">
+    <cfRule type="expression" dxfId="13" priority="25">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:D28">
-    <cfRule type="expression" dxfId="10" priority="8">
+    <cfRule type="expression" dxfId="12" priority="12">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:E20 D23:E23">
-    <cfRule type="expression" dxfId="9" priority="22">
+    <cfRule type="expression" dxfId="11" priority="26">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29:E29">
-    <cfRule type="expression" dxfId="8" priority="1">
+    <cfRule type="expression" dxfId="10" priority="5">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D19 E2:E7">
+  <conditionalFormatting sqref="D2:D19 E2:E4">
+    <cfRule type="dataBar" priority="42">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="2"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
     <cfRule type="dataBar" priority="38">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -4121,7 +4150,16 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
+  <conditionalFormatting sqref="D6:D7">
+    <cfRule type="dataBar" priority="36">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="2"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15 D13">
     <cfRule type="dataBar" priority="34">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -4130,7 +4168,7 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D6:D7">
+  <conditionalFormatting sqref="D15">
     <cfRule type="dataBar" priority="32">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -4139,26 +4177,8 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D15 D13">
-    <cfRule type="dataBar" priority="30">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="2"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D15">
-    <cfRule type="dataBar" priority="28">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="2"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D16:D17">
-    <cfRule type="dataBar" priority="37">
+    <cfRule type="dataBar" priority="41">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="2"/>
@@ -4167,7 +4187,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18:D19">
-    <cfRule type="dataBar" priority="36">
+    <cfRule type="dataBar" priority="40">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="2"/>
@@ -4176,7 +4196,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20">
-    <cfRule type="dataBar" priority="24">
+    <cfRule type="dataBar" priority="28">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="2"/>
@@ -4190,7 +4210,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22">
-    <cfRule type="dataBar" priority="13">
+    <cfRule type="dataBar" priority="17">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="2"/>
@@ -4202,10 +4222,10 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="14">
+    <cfRule type="expression" dxfId="9" priority="18">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="15">
+    <cfRule type="dataBar" priority="19">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="2"/>
@@ -4219,7 +4239,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23">
-    <cfRule type="dataBar" priority="23">
+    <cfRule type="dataBar" priority="27">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="2"/>
@@ -4233,7 +4253,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25">
-    <cfRule type="dataBar" priority="10">
+    <cfRule type="dataBar" priority="14">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="2"/>
@@ -4245,10 +4265,10 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="11">
+    <cfRule type="expression" dxfId="8" priority="15">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="12">
+    <cfRule type="dataBar" priority="16">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="2"/>
@@ -4262,7 +4282,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28">
-    <cfRule type="dataBar" priority="7">
+    <cfRule type="dataBar" priority="11">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="2"/>
@@ -4274,7 +4294,7 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="dataBar" priority="9">
+    <cfRule type="dataBar" priority="13">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="2"/>
@@ -4288,10 +4308,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29:D31">
-    <cfRule type="expression" dxfId="5" priority="2">
+    <cfRule type="expression" dxfId="7" priority="6">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="5">
+    <cfRule type="dataBar" priority="9">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="2"/>
@@ -4305,7 +4325,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30:D31">
-    <cfRule type="dataBar" priority="3">
+    <cfRule type="dataBar" priority="7">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="2"/>
@@ -4319,7 +4339,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:E1">
-    <cfRule type="dataBar" priority="63">
+    <cfRule type="dataBar" priority="67">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="2"/>
@@ -4327,8 +4347,8 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D26:E26 E27">
-    <cfRule type="dataBar" priority="25">
+  <conditionalFormatting sqref="D26">
+    <cfRule type="dataBar" priority="29">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="2"/>
@@ -4342,7 +4362,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29:E29 E30:E31">
-    <cfRule type="dataBar" priority="4">
+    <cfRule type="dataBar" priority="8">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="2"/>
@@ -4356,7 +4376,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32:E1048576">
-    <cfRule type="dataBar" priority="70">
+    <cfRule type="dataBar" priority="74">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="2"/>
@@ -4365,6 +4385,42 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8:E10">
+    <cfRule type="dataBar" priority="50">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="2"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11:E12">
+    <cfRule type="dataBar" priority="53">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="2"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E15">
+    <cfRule type="dataBar" priority="48">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="2"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16:E17">
+    <cfRule type="dataBar" priority="47">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="2"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E18:E19">
     <cfRule type="dataBar" priority="46">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -4373,44 +4429,8 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E11:E12">
-    <cfRule type="dataBar" priority="49">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="2"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E15">
-    <cfRule type="dataBar" priority="44">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="2"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E16:E17">
-    <cfRule type="dataBar" priority="43">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="2"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E18:E19">
-    <cfRule type="dataBar" priority="42">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="2"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E20:E22">
-    <cfRule type="dataBar" priority="27">
+    <cfRule type="dataBar" priority="31">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="2"/>
@@ -4424,12 +4444,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21:E22">
-    <cfRule type="expression" dxfId="4" priority="20">
+    <cfRule type="expression" dxfId="6" priority="24">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23:E24">
-    <cfRule type="dataBar" priority="26">
+    <cfRule type="dataBar" priority="30">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="2"/>
@@ -4443,12 +4463,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24:E25">
-    <cfRule type="expression" dxfId="3" priority="18">
+    <cfRule type="expression" dxfId="5" priority="22">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25">
-    <cfRule type="dataBar" priority="19">
+    <cfRule type="dataBar" priority="23">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="2"/>
@@ -4461,13 +4481,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E27:E28">
-    <cfRule type="expression" dxfId="2" priority="16">
+  <conditionalFormatting sqref="E5:E7">
+    <cfRule type="expression" dxfId="1" priority="3">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E28">
-    <cfRule type="dataBar" priority="17">
+  <conditionalFormatting sqref="E5:E7">
+    <cfRule type="dataBar" priority="4">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="2"/>
@@ -4475,7 +4495,26 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{FECCE25E-B3E1-4BCE-AC3B-BB042E005AA0}</x14:id>
+          <x14:id>{97D885F7-376B-4DFA-ADB1-4A8DF44D7FED}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E26:E28">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E26:E28">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="2"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{22E43252-B12B-4364-B80D-1F8847C3058E}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4643,7 +4682,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D26:E26 E27</xm:sqref>
+          <xm:sqref>D26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{BC50BDC4-63AC-41EE-94E5-E5396C6A4BC3}">
@@ -4706,7 +4745,7 @@
           <xm:sqref>E25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{FECCE25E-B3E1-4BCE-AC3B-BB042E005AA0}">
+          <x14:cfRule type="dataBar" id="{97D885F7-376B-4DFA-ADB1-4A8DF44D7FED}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -4718,7 +4757,22 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E28</xm:sqref>
+          <xm:sqref>E5:E7</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{22E43252-B12B-4364-B80D-1F8847C3058E}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E26:E28</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -4803,7 +4857,7 @@
   </sheetData>
   <autoFilter ref="A1:L1" xr:uid="{00000000-0009-0000-0000-000005000000}"/>
   <conditionalFormatting sqref="K1">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5108,7 +5162,7 @@
   </sheetData>
   <autoFilter ref="A1:R1" xr:uid="{00000000-0009-0000-0000-000006000000}"/>
   <conditionalFormatting sqref="P1">
-    <cfRule type="expression" dxfId="0" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
